--- a/500all/speech_level/speeches_CHRG-114hhrg99658.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99658.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The Committee on Oversight and Government Reform will come to order.    Without objection, the chair is authorized to declare a recess at any time.    This morning, we had been conducting a joint hearing with the Natural Resources Committee, but, in consultation with the ranking member, Mr. Cummings, and working with the Democrats, we are going to go ahead and start this hearing at this time.    Today, we are here to talk about the Federal Air Marshals--a very difficult job, very needed in this country, unfortunately.    The Federal Air Marshal Service, often referred to as FAMS, is comprised of thousands of men and women who have taken an oath to prevent and disrupt acts of terrorism on our Nation's airplanes. Many of these men and women operate at 30,000 feet in the air and act as the last line of defense against potential terror attacks.    These air marshals operate in anonymity and mostly under their own supervision, and most of them do a good and decent job, serving a patriotic service and doing so with great integrity. But when any member of this highly trained workforce veers away from the core mission, they put the Nation's air security at risk.    So why are we here today? Unfortunately, there have been some very high-profile scandals. Former FAMS Director, Federal Air Marshal Service Director Robert Bray retired in 2014 after being investigated for his entanglement in an alleged operation to acquire guns for officials' personal use. In 2012, Federal Air Marshals assigned to protect commercial flights across the United States were pulled from their assigned flights so they could meet on sexual rendezvous.    Most recently, there is an allegation of air marshals disguising themselves as pornography producers, hiring prostitutes and using their government-issued phones and other assets to film sexual encounters. Unfortunately, these people, based in Chicago, have been evidently engaged in these activities.    These are all ongoing investigations. There is also reportedly major alcohol abuse within the Federal Air Marshal Service.    But this story, this hearing is really not only intended to address those problems, but it has at least been our purview in the Oversight and Government Reform Committee, at least on our side of the aisle, that Director Allison, who is here today, and Ms. Book have taken some pretty strong and decisive action.    Now, through the course of the first 8 months that I have been chairman of this committee, we have heard a series of different agencies that have come before us and complained that they couldn't take decisive action. Think of the DEA, the Secret Service, the EPA. We have had some very, very salacious misconduct from some of their employees, and yet they weren't fired, they weren't put on administrative leave, they didn't get their security clearances revoked. We had a situation, like I said, with the Secret Service, within the same department and agency, Homeland Security. Why weren't those people's security clearances revoked?    But what I have found in the interactions, with great concern, hearing about how maybe flight schedules had been manipulated and sexual misconduct going on and inappropriate behavior--really thought that what we were going to find is yet another agency that wasn't dealing with that in an appropriate way.    Now, there is more to learn; we are not giving them a free pass. I am not saying it is the absolute model for where we should be going, but I have been very impressed in the openness and transparency within the Federal Air Marshal system, their interaction with our committee, and what they did in a very decisive and swift manner.    So, every hearing we do, we are not calling for the resignation of everybody--a lot of them, but, in some cases, we find something that is actually working well. Because there are misdeeds going on, there are things that are going awry, and we want to learn what they are doing in order to rectify that.    So I have the deepest respect for the loyal men and women who work under Director Allison's leadership. They bear a tremendous responsibility.    There are some things in this hearing that I am sure members of the public and members of this committee would be interested in hearing. Some of that is classified. I will interrupt and I will not tolerate anybody who is trying to get specific details about the number of air marshals, which flights are they on, which flights are they not on, and how they make such selections. That would be reserved for a classified setting, not appropriate in an open hearing. We do not need to tell the terrorists who they are, what they are doing, how they do it.    Suffice it to say, I have reviewed some materials that would lead me to believe, A, this service is needed. There is a threat, and it gives me comfort to know that they are on top of it.    Now, I worry about they don't know and who might be on an airplane or getting through security, and there are a host of other things that we should--and Mr. Mica has done great work on this, the security badges and getting through and what the whole TSA is doing and not doing. A totally different subject.    But let's talk about the good, the bad, and the ugly of what is happening here with the Federal Air Marshals. And let's also give some credit where credit is due when we do rout out something that is wrong and deal with that in a swift manner.    So, with that, I will yield my time and now recognize the ranking member, the gentleman from Maryland, Mr. Cummings, for his opening statement.</t>
   </si>
   <si>
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman. And I do thank you for holding this hearing on allegations of misconduct by employees of the Federal Air Marshal Service.    And let me say this from the outset, Mr. Chairman. I agree with you with regard to Administrator Allison. It is so often that people in his position seem to skirt around matters when there is wrongdoing in their department. But, as you have said to me both privately and now publicly, he has taken on his responsibilities very diligently and carefully and has done everything in his power to address the issues at hand. And we do appreciate that.    Our committee has been looking into two separate cases. In February, press reports allege that a TSA employee used her position to gain access to personnel files and flight schedules to identify air marshals she wanted to date. According to these press reports, flight schedules were changed to facilitate, ``sexual trysts.'' On March 2, Chairman Chaffetz and I, along with Representatives Mica, Duckworth, DeSantis, and Lynch, wrote to Secretary Johnson at the Department of Homeland Security with regard to this incident.    A second incident was reported publicly just yesterday. According to an article by the Associated Press, ``Two Federal Air Marshals have been suspended amidallegations they hired prostitutes overseas and recorded a sexual encounter with a government-issued device.'' Obviously, if these allegations are accurate, they are completely inappropriate for anyone, let alone air marshals charged with securing our skies. These employees must be held accountable, and I know they will be.    From our perspective here in Congress, we want to ensure the integrity of the ongoing investigations and disciplinary actions in these cases, so we cannot discuss some of this information publicly. The last thing we want to do is compromise these ongoing investigations.    Director Allison, we understand that you and Ms. Book may not be able to testify about certain details of these cases at today's hearing. We fully understand that. And, as the chairman said, I know that he will diligently guard against questions that might go into those issues.    Despite these limitations, however, I want to thank you very much for the detailed briefing you gave to me and to the chairman last night about these incidents. Based on the limited information the committee has obtained to date, it appears that managers at your agency have been acting appropriately, using existing legal authorities to investigate and take action on these cases.    The chairman has also made clear that he acknowledges the positive steps you have taken to date. And I applaud you for what you said to us just yesterday--that is, that you want to be proactive, that you want to create an atmosphere where these things don't happen so you don't have to come behind and clean up a mess. Those aren't your words; those are my words.    Our broad interest is in ensuring that employees who are alleged to have engaged in misconduct are investigated promptly and fairly. We want bad employees to be routed out as quickly as possible because they give a bad name to the vast majority of Federal workers who devote their entire careers and lives to this Nation.    And one of the other things that you told us is that you want to make sure that your agency has the very best and lives up to the highest of standards. And we appreciate that.    We also want to protect the rights of employees accused of misconduct to ensure that they have due process to defend themselves against accusations that are false. Director Allison has already taken several steps to improve this process, and I believe the Oversight Committee can also help.    For example, my staff members have been working very closely behind the scenes to help the Environmental Protection Agency and its inspector general develop new protocols to share information about employee misconduct matters. As a result of this work, both the EPA and IG have now advised the committee that they have implemented new processes to take more timely and fair disciplinary actions. They have begun holding biweekly meetings to share information about investigations, they are now communicating more frequently about administrative actions, and they are now sharing with agency managers reports of investigation in specific cases.    And so, Mr. Chairman, as I close, I have here a joint letter that was sent to the committee from both the EPA and the IG's office detailing some of these improvements, and I ask unanimous consent that it be entered into the record.</t>
   </si>
   <si>
@@ -82,18 +76,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Allison</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allison. Good afternoon, Chairman Chaffetz, Ranking Member Cummings, and members of the committee. I appreciate the opportunity to appear before you today to testify about the Federal Air Marshal Service.    Our mission at FAMS is to detect, deter, and defeat criminal or terrorist activities against our transportation systems. We perform our core mission by deploying Federal Air Marshals on United States-flagged aircraft throughout the world, 365 days a year, utilizing a concept of operations that aligns with TSA's risk-based security strategy.    Federal Air Marshals are law enforcement officers who receive specialized training to prepare them for the challenges associated with a very difficult working environment. Our officers operate at 30,000 feet, in restricted space, and have no backup to call upon.    The Service is unique in its ability to remain flexible and to rapidly deploy hundreds of law enforcement officers in response to specific evolving threats within the transportation domain around the world.    I can assure you that the vast majority of Federal Air Marshals are quiet counterterrorism professionals working diligently every day on thousands of flights a year to protect the traveling public and ensure our transportation systems are safe.    There have been recent media reports on this conduct by FAMS. I can assure you that Administrator Neffenger finds misconduct at any level completely unacceptable. I wholeheartedly share his philosophy and have made it crystal-clear to every employee: There is no tolerance for misconduct.    All personnel are very well aware of our high standards and expectations of professionalism. And, as Federal law enforcement professionals, they are held to a higher standard, both on duty and off duty. I share the committee's expectation that we, as government employees, must demonstrate the highest level of integrity and conform to a rigorous code of conduct.    As you know, I cannot comment on pending investigations. However, I can tell you that all allegations of misconduct are immediately referred to TSA's Office of Inspection or the DHS Office of Inspector General for a thorough, impartial, and independent investigation.    The results of these investigations are reported to TSA's Office of Professional Responsibility. Investigative findings that are substantiated by these independent investigations may result in severe consequences, up to and including removal from Federal service. And please note that the discipline decisions are independently administered, as well, by Assistant Administrator Heather Book's staff at the Office of Professional Responsibility, who is here today.    Since becoming the FAMS Director in June of 2014, I have made strong value-based leadership, workforce engagement, enhancing communication, and promoting the highest level of professionalism and integrity in the Air Marshal Service my top priorities. Over the past 16 months, I have personally visited all 22 Federal Air Marshal field offices, and, together with the Deputy Director, we have held 50 townhall meetings throughout the FAMS organization.    I also use multiple means of communication to ensure open dialogue access at all levels of the workforce. I encourage the use of the Director's email box, personally engage with both the Federal Air Marshal Advisory Council and the Supervisory Air Marshal Advisory Council. I utilize an ombudsman and aggressively communicate the availability of support and assistance programs that are available to all employees.    Since the vast majority of our employees are dedicated professionals who conduct themselves in an exemplary manner each and every day, I have initiated a number of programs to recognize, award, and thank them. This outreach has provided me the opportunity to highlight and express my appreciation for the outstanding work that is being accomplished by so many.    During initial training, all Federal Air Marshals are provided multiple courses regarding integrity, accountability, and professionalism. We have expanded our in-service training to a variety of topics, including resiliency, critical incident response, and, most recently, completed mandatory alcohol awareness training.    All TSA employees are subject to recurrent annual vetting and on an annual basis certify that they understand and will abide by TSA's employee responsibilities and code of conduct. Additionally, FAMS are subject to security clearance determinations and appointments to national security critical sensitive positions following strict adherence to the federally established adjudication guidelines.    Nonetheless, these proactive efforts won't prevent all misconduct. There are a handful of employees who may betray the trust bestowed upon them. In these cases, both headquarters and field leaders must and will act appropriately, quickly, and decisively.    During my visits, I have stressed to supervisors their responsibility to lead. They are expected to mentor subordinates and to manage minor issues at the local level. I have empowered them to lead by example and to foster a law enforcement environment that promotes integrity and accountability. I believe a strong leadership reduces the likelihood of misconduct and performance issues.    We continue to provide our workforce with the resources and specialized support required to carry out the mission. As such, FAMS maintains a number of medical programs, to include a comprehensive annual physical, health and fitness program, and employee assistance resources. The FAMS medical section is staffed with a physician and other full-time medical professionals who are available to FAMS personnel at any time.    FAMS recognizes the value of these programs, as our mission is demanding both physically and mentally. We will continue to make these and other employee assistance programs available to our personnel.    The Federal Air Marshal Service is a strong counterterrorism element in the security TSA provides to the traveling public. We take our mission seriously, and our workforce is dedicated to preventing and disrupting both criminal and terrorist acts aboard aircraft within the transportation domain.    Our workforce is comprised of exceptional men and women who execute a difficult mission. I am deeply honored to lead this team of counterterrorism professionals, and our Nation should be proud of the work they do each and every day to support the goal of securing our transportation systems.    I appreciate this committee's interest in our mission as we execute our sworn duties, which are vital to the security of the traveling public. Thank you for the opportunity to appear before you today, and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Ms. Book, you are now recognized.</t>
   </si>
   <si>
-    <t>Book</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Book. Thank you.    Good afternoon, Chairman Chaffetz, Ranking Member Cummings, and distinguished members of the committee. Thank you for the opportunity to testify today.    Our highest priority at TSA is accomplishing the important mission to protect the Nation's transportation systems and to ensure freedom of movement for legitimate travel and commerce. Our new Administrator, Mr. Peter Neffenger, has committed to ensuring that we continue to pursue our vision of an effective, high-performing counterterrorism organization. We are a security organization, and every member of our team must be focused on this core mission.    Most importantly, our new Administrator has committed to leading with values that define our agency--integrity, innovation, and team spirit--and he has asked each of our employees to do so, as well.    Every day, TSA's 57,000 employees serve to ensure the security of our Nation's transportation networks, interacting with the traveling public millions of times each day. We screen passengers and baggage at nearly 450 airports across the United States. We deploy Federal Air Marshals on U.S. Aircraft worldwide to ensure the safe conduct of flights on high-risk routes and to cover special mission needs. We vet 14 million passenger reservations and 13 million transportation workers against the terrorist watchlist every week.    The totality of our efforts facilitate safe, secure air travel for 1.8 million people per day. In doing so, the vast, overwhelming majority of our workforce serves with honor and integrity.    Our success depends upon the dedication and professionalism of our workforce. Public service is a public trust, demanding adherence to the highest ethical and personal standards of conduct. Because TSA employees interact directly with the public and hold sensitive security positions, their conduct is held to the strictest standards. When a TSA employee fails to live up to those standards, he or she violates that trust and undermines the honorable work that others do keeping the traveling public safe.    For all these reasons, we have no tolerance for misconduct or criminal activity in the workplace. When allegations or incidents of misconduct arise, they are investigated by the DHS Office of Inspector General or by TSA's Office of Inspection, an independent office that reports directly to the TSA Administrator and Deputy Administrator.    Office of Inspection reviews allegations and reports them to DHS Office of Inspector General. When OIG elects not to handle the case, Office of Inspection conducts the investigation.    The Office of Inspection also conducts independent oversight inspections of operational programs, procedures, and policies. These inspections assess compliance and afford employees an opportunity to discuss allegations of misconduct in a confidential setting.    To promote consistency, timeliness, and accountability in the disciplinary process, TSA created the Office of Professional Responsibility, or OPR, the office that I lead. OPR adjudicates all allegations of misconduct involving senior-level employees and law enforcement personnel, including the Federal Air Marshals. OPR officials also review all reports of investigation from the OIG regardless of the pay grade or seniority of the employee.    OPR has promoted greater transparency and consistency in the entire TSA disciplinary system by creating a table of offenses and penalties. The table provides ranges of penalties for each type of offense and guides the decisions of officials both at OPR and in the field.    The Office of Professional Responsibility has a trained staff dedicated to adjudicating disciplinary matters involving senior-level employees and law enforcement personnel, including the Federal Air Marshals.    OPR affords employees due process and holds them accountable to TSA's high standard of conduct. Having a dedicated staff of adjudicators who serve as independent proposing and deciding officials has reduced the time between the issuance of the resolution proposal notice and the decision letter.    Through use of the dedicated staff and the table of offenses and penalties, OPR has taken strong actions and has maintained a consistent approach to accountability.    OPR has partnered with the Office of Law Enforcement/Federal Air Marshal Service to educate the workforce in the field regarding disciplinary process and the table of offenses and penalties. The goal of our joint outreach efforts is to motivate positive behavior and to deter or prevent misconduct by providing notice of the possible penalty and consequence.    Additionally, OPR has supported Director Allison's alcohol awareness initiative by amending policy to require Federal Air Marshals to abstain from consuming or being under the influence of alcohol for a minimum of 10 hours before mission report time. For the offense of driving a privately owned vehicle off duty while intoxicated, the table of offenses and penalty requires a 30-day suspension for law enforcement employees.    Because TSA, through my Office of Professional Responsibility, has taken an aggressive approach in drafting solid proposals and decision letters in disciplinary matters, and through the support of the Office of Chief Council, OPR has had strong cases in the event of litigation.    Ethics and integrity are at the core of who we are as a counterterrorism agency. It is up to all of us to always show the highest level of professionalism and perform our work with honor and pride.    As we strive to continue strengthening transportation security and improving the overall travel experience for all Americans, we always bear in mind that the success of our mission depends on the conduct of our people. The freedom to travel is fundamental to our American way of life, and TSA is fully committed to ensuring that the public can do so securely.    Thank you for the opportunity to appear before you today. I am pleased to address any questions that you may have.</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Thank you, Mr. Chairman, for calling this important hearing reviewing some of the performance of the Federal Air Marshal Service.    Unfortunately, the FAMS, Federal Air Marshal Service, has had a recent history of a whole host of misconduct on a whole host of occasions. We have had the gun purchase scandal, the air marshal scheduling scandal, and allegations of cronyism and discrimination issues, air marshals dependent on drug and alcohol.    And you were brought in, Mr. Director Allison, when? Last year?</t>
   </si>
   <si>
@@ -154,9 +139,6 @@
     <t>412644</t>
   </si>
   <si>
-    <t>Bonnie Watson Coleman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you, Mr. Chairman. But use your influence with the majority so they don't close out the voting before I get there. Thank you for holding this hearing.</t>
   </si>
   <si>
@@ -211,9 +193,6 @@
     <t>400116</t>
   </si>
   <si>
-    <t>John J. Duncan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Well, thank you, Mr. Chairman. And I don't have any questions, but I do want to make a few statements for the record.    And let me say first of all that I almost never disagree with my chairman, and Ranking Member Cummings is one of the members here that I respect the most, but I personally think this Federal Air Marshal Service is probably the least or certainly one of the least-needed organizations in our entire Federal Government.    And this is no criticism of Director Allison. He has been given a job, and it is his duty to do the best that he can.    And I may have been the first or one of the first to question the need for this organization, but many people have done that in the past few years. Gram Slattery wrote in the Harvard Political Review, he said, ``A third and, for our purposes, final example would of course be the Federal Air Marshal Service--not the one of Hollywood's imagination, but the real one, which has come to be a symbol of everything that's wrong with the DHS: the agency in which 4,000 bored cops fly around the country first-class, committing more crimes than they stop, and waiting to be among the 0.1 percent of agents making one of those rare, ephemeral $200 million arrests.''    And what he's referring to, there was a USA Today article a few years ago that said that there were more air marshals being arrested than arrests by air marshals. There were a few years there where they averaged four arrests a year, and this is for an agency that was getting over $800 million a year. And, in fact, in the last 10 years, they've gotten almost $9 billion total.    Then there was a book written by John Mueller, a professor at Ohio State, along with Mark Stewart, an Australian statistical engineer, who wrote a book called ``Overblown: How Politicians and the Terrorism Industry Inflate National Security Threats and Why We Believe Them.'' One of the key findings of this book was that these two professors could not find any internal discussions, public reports, government personnel, or sources of any kind that could explain how the DHS could justify the spending on the Federal Air Marshal Service.    And they said, because the agency so totally fails a cost-benefit analysis, when they wrote, they said, since the FAMS costs $1.2 billion per year--which I guess that was how much it was at the time they were writing--and its effectiveness is in serious doubt, and they said, an alternate policy measure is to double the budget of the FFDO program, the Federal Flight Deck program, and also to increase the spending on the secondary security barriers, the IPSBs.    Former Congressman Sonny Callahan I remember saying years ago, he said, we did everything we really needed to do when we secured the cockpit doors. And, of course, now we spend billions on the TSA.    But these two professors recommended a 75-percent cut in funding for the Federal Air Marshal Service because it was so ineffective.    Then former Senator Tom Coburn wrote in his last report that he made as a Senator, he said, ``It's unclear to what extent the air marshal program is reducing risk to aviation security, despite the more than $820 million annually that is spent on the program.'' In addition, he wondered if other enhanced security screening and safety precautions undertaken by the TSA and the airlines themselves have made--he said they've made the Air Marshal Service irrelevant.    It seems to me--of course, every Member of Congress flies here usually about twice a week. And that is what these air marshals do; they fly back and forth, back and forth, back and forth. It has to be one of the softest, easiest jobs in the Federal Government but, I think, one of the least necessary.    And so I just wanted to put those comments on record, Mr. Chairman, because I think this money--there are so many better things that this money could be and should be being spent on.    Thank you very much.</t>
   </si>
   <si>
@@ -223,9 +202,6 @@
     <t>412533</t>
   </si>
   <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    Director Allison, I was troubled by your written testimony because it did little to address ongoing investigations of allegations of workers' comp fraud and sexual misconduct by the air marshals. I think that this behavior undermines your mission and the Americans that the agency serves.    I am especially disappointed that the scandal involves air marshals from your Chicago office, which is, of course, near one of the world's busiest airports, Chicago O'Hare. My constituents expect and deserve to be served by a dedicated corps of Federal Air Marshals who are 100-percent committed to safeguarding flights in and out of Chicago.    And, as other members have rightly noted, these allegations are highly disturbing because they involve Federal law enforcement officers. And Congress entrusts these men and women with a badge, a gun, a solemn oath to protect our constituents from terrorist acts.    And if the allegations of this egregious behavior and misconduct are proven true, I strongly believe that the three Chicago air marshals must be held fully accountable. And I know that you are well on your way to doing so, and one of which have retired.    But my concerns extend beyond this particular incident. My fundamental questions about the potential weaknesses is in how the Air Marshal Service recruits, vets, and hires new applicants into the job.    This scandal that was disclosed last night comes on the heels of another alleged incident of gross misconduct involving your employees earlier this year, and it is simply unacceptable. And now that there are two incidents, I want to make sure that, you know, these are highly unusual, isolated incidents and not a weakness in the recruiting program.    However, this committee can't replace facts with hope. We have an oversight responsibility to examine whether these scandals are symptoms of a deeper, more comprehensive problem that threatens to undermine the Service's effectiveness in recruiting, evaluating, and hiring potential air marshals.    So, Director Allison, can you briefly describe how Federal Air Marshal Service's recruiting, vetting, and hiring system allowed individuals who are suspected of engaging in incredibly inappropriate misconduct to become Federal Air Marshals in the first place? And include in your answer details on the type of after-action review your team conducted to make such a determination.</t>
   </si>
   <si>
@@ -373,9 +349,6 @@
     <t>412638</t>
   </si>
   <si>
-    <t>Brenda L. Lawrence</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you, Mr. Chairman.    Director Allison and Ms. Book, thank you for being here today. I appreciate you being here.    The alleged misconduct of Federal Air Marshals that have been reported in the media, if it is true, is outrageous and unacceptable.    I understand that discussing specifics of these allegations could jeopardize ongoing investigations, and we don't want that to happen. But without going into specific investigations, we do have an opportunity--and I really appreciate what I just heard you say, Director Allison--we have the opportunity to discuss positive policy changes that agencies can implement to ensure that serious misconduct is dealt with quickly and fairly.    So my question to you today, in addition to the EPA and IG--the IG, they were able to identify employee misconduct cases involving pornography for expedited processing. EPA reports that this new procedure is already working. They have taken prompt administrative action in two misconduct cases since initiating ongoing communications with the Office of Inspector General.    Director Allison, can you let me know, is there a similar process for the Federal Air Marshal Service in which investigators, management, and leadership communicate, with the goal of streamlining--streamlining--the disciplinary process?</t>
   </si>
   <si>
@@ -400,9 +373,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    And thanks to both our witnesses for your testimony here today.    Ms. Book, I would like to draw some answers from you. Just overall, what is the role of the Office of Professional Responsibility?</t>
   </si>
   <si>
@@ -490,9 +460,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chair.    Thank you both for being here.    I, too, want to express my concern regarding the allegations reported by ABC, the channel I watch in Chicago, the city that I represent.    But I also want to give you the opportunity, Director Allison, to talk more about the positives. You shared with the chairman about the program dealing with alcohol, but can you talk more about the townhall meetings or the thank-you campaign that you are doing? What are some of the good things?</t>
   </si>
   <si>
@@ -502,9 +469,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Yes.</t>
   </si>
   <si>
@@ -526,9 +490,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    And, Director Allison, with regard to the particular incident, I realize it is under investigation, but could you speak to how it was initially discovered? Internally or externally?</t>
   </si>
   <si>
@@ -571,9 +532,6 @@
     <t>412613</t>
   </si>
   <si>
-    <t>Mark DeSaulnier</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSaulnier. Thank you, Mr. Chairman and Ranking Member.    Director, first, I want to join the positive comments about your management. It is really a relief to hear it off of, as the chairman said in his opening comments, some of the other hearings we have had and the difficulty of what would seem like just commonsense management leadership.    But I wanted to, besides congratulating you and thanking you, talk about a specific program that you have developed--it is my understanding you developed--that Mr. Russell sort of mentioned, the alcohol awareness campaign.    Could you just walk the committee through how--what was the genesis of you developing the campaign and, sort of, what the campaign does for prevention and intervention and then the testing protocol that would be able to intervene after you have done the prevention and intervention?</t>
   </si>
   <si>
@@ -593,9 +551,6 @@
   </si>
   <si>
     <t>412661</t>
-  </si>
-  <si>
-    <t>Glenn Grothman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Grothman. Yeah. It's a little disturbing that you have to go through a program to tell people they shouldn't be working while drunk, but I'm glad you're having success with your program.    About how many air marshals do we have out there?</t>
@@ -1270,11 +1225,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1294,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1322,11 +1273,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1346,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1374,11 +1321,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1400,11 +1345,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1424,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1452,11 +1393,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1476,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1504,11 +1441,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1528,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1554,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1580,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1606,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1632,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1658,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1684,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1710,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1736,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1762,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1788,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1814,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1840,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1866,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1892,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1920,11 +1825,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1944,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1972,11 +1873,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1996,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2022,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2048,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
         <v>45</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2074,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2100,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2126,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2152,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2178,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2204,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2230,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2256,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2282,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2308,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2336,11 +2209,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2362,11 +2233,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2386,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2414,11 +2281,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2438,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2464,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2490,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2516,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2542,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2570,11 +2425,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2594,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2622,11 +2473,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2646,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2674,11 +2521,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2698,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2726,11 +2569,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2750,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2778,11 +2617,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2802,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2830,11 +2665,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2854,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2882,11 +2713,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2906,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2934,11 +2761,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2958,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2986,11 +2809,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3010,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3038,11 +2857,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3062,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3090,11 +2905,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3114,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3142,11 +2953,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3166,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3194,11 +3001,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3218,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3246,11 +3049,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3270,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3298,11 +3097,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3322,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3350,11 +3145,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3374,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3402,11 +3193,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3426,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3454,11 +3241,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3478,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3506,11 +3289,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3530,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3558,11 +3337,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3582,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3610,11 +3385,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3634,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3662,11 +3433,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3686,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3714,11 +3481,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3738,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
-      </c>
-      <c r="G97" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3764,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3790,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3816,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3842,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3868,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3896,11 +3649,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3920,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>127</v>
-      </c>
-      <c r="G104" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3946,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3972,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>127</v>
-      </c>
-      <c r="G106" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3998,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4024,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4050,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4076,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>127</v>
-      </c>
-      <c r="G110" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4102,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4128,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
+        <v>118</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
         <v>127</v>
-      </c>
-      <c r="G112" t="s">
-        <v>128</v>
-      </c>
-      <c r="H112" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4154,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4180,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>127</v>
-      </c>
-      <c r="G114" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4206,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4232,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>127</v>
-      </c>
-      <c r="G116" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4258,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4284,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>127</v>
-      </c>
-      <c r="G118" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4310,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4336,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>127</v>
-      </c>
-      <c r="G120" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4362,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4388,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>127</v>
-      </c>
-      <c r="G122" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4414,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4440,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>127</v>
-      </c>
-      <c r="G124" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4466,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4492,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>127</v>
-      </c>
-      <c r="G126" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4518,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4544,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>127</v>
-      </c>
-      <c r="G128" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4570,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4596,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>127</v>
-      </c>
-      <c r="G130" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4624,11 +4321,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4648,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>157</v>
-      </c>
-      <c r="G132" t="s">
-        <v>158</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4674,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4700,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>161</v>
-      </c>
-      <c r="G134" t="s">
-        <v>162</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4726,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4752,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G136" t="s">
-        <v>158</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4778,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4804,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>157</v>
-      </c>
-      <c r="G138" t="s">
-        <v>158</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4830,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4858,11 +4537,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4882,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>169</v>
-      </c>
-      <c r="G141" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4908,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4934,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>169</v>
-      </c>
-      <c r="G143" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4960,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4986,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>169</v>
-      </c>
-      <c r="G145" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5012,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5038,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>169</v>
-      </c>
-      <c r="G147" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5064,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5090,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5116,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>169</v>
-      </c>
-      <c r="G150" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5142,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5168,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
+        <v>157</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
         <v>169</v>
-      </c>
-      <c r="G152" t="s">
-        <v>170</v>
-      </c>
-      <c r="H152" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5196,11 +4849,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5220,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>184</v>
-      </c>
-      <c r="G154" t="s">
-        <v>185</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5246,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5272,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>184</v>
-      </c>
-      <c r="G156" t="s">
-        <v>185</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5298,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5324,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>184</v>
-      </c>
-      <c r="G158" t="s">
-        <v>185</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5352,11 +4993,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5376,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>192</v>
-      </c>
-      <c r="G160" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5402,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5428,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>192</v>
-      </c>
-      <c r="G162" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5454,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5480,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>192</v>
-      </c>
-      <c r="G164" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5506,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5532,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>192</v>
-      </c>
-      <c r="G166" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5558,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5584,13 +5207,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>192</v>
-      </c>
-      <c r="G168" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5610,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5636,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>192</v>
-      </c>
-      <c r="G170" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5662,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5688,13 +5303,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>192</v>
-      </c>
-      <c r="G172" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5714,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5740,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>192</v>
-      </c>
-      <c r="G174" t="s">
+        <v>178</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
         <v>193</v>
-      </c>
-      <c r="H174" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5766,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5792,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>192</v>
-      </c>
-      <c r="G176" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5818,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5844,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>192</v>
-      </c>
-      <c r="G178" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5870,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5896,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>192</v>
-      </c>
-      <c r="G180" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5922,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5948,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>192</v>
-      </c>
-      <c r="G182" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5974,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6000,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>192</v>
-      </c>
-      <c r="G184" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6026,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6052,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>192</v>
-      </c>
-      <c r="G186" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6080,11 +5665,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6104,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6130,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6156,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6182,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
-      </c>
-      <c r="G191" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6208,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
-      </c>
-      <c r="G192" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6234,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
-      </c>
-      <c r="G193" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6260,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
-      </c>
-      <c r="G194" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6286,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6312,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6338,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
-      </c>
-      <c r="G197" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6364,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6392,11 +5953,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6416,13 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>161</v>
-      </c>
-      <c r="G200" t="s">
-        <v>162</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6442,13 +5999,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>21</v>
-      </c>
-      <c r="G201" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6468,13 +6023,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>161</v>
-      </c>
-      <c r="G202" t="s">
-        <v>162</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6494,13 +6047,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>21</v>
-      </c>
-      <c r="G203" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6520,13 +6071,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>161</v>
-      </c>
-      <c r="G204" t="s">
-        <v>162</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6546,13 +6095,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>21</v>
-      </c>
-      <c r="G205" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6572,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>161</v>
-      </c>
-      <c r="G206" t="s">
-        <v>162</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6598,13 +6143,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>21</v>
-      </c>
-      <c r="G207" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6624,13 +6167,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>161</v>
-      </c>
-      <c r="G208" t="s">
-        <v>162</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6650,13 +6191,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>21</v>
-      </c>
-      <c r="G209" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6676,13 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>161</v>
-      </c>
-      <c r="G210" t="s">
-        <v>162</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6702,13 +6239,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>21</v>
-      </c>
-      <c r="G211" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6728,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>161</v>
-      </c>
-      <c r="G212" t="s">
-        <v>162</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6754,13 +6287,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>21</v>
-      </c>
-      <c r="G213" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6780,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>161</v>
-      </c>
-      <c r="G214" t="s">
-        <v>162</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6806,13 +6335,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>21</v>
-      </c>
-      <c r="G215" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6832,13 +6359,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>161</v>
-      </c>
-      <c r="G216" t="s">
-        <v>162</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6858,13 +6383,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>21</v>
-      </c>
-      <c r="G217" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6884,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>161</v>
-      </c>
-      <c r="G218" t="s">
-        <v>162</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6910,13 +6431,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>21</v>
-      </c>
-      <c r="G219" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6936,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>161</v>
-      </c>
-      <c r="G220" t="s">
-        <v>162</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6964,11 +6481,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6988,13 +6503,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>21</v>
-      </c>
-      <c r="G222" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7016,11 +6529,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>12</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7040,13 +6551,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>21</v>
-      </c>
-      <c r="G224" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7068,11 +6577,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7092,13 +6599,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>21</v>
-      </c>
-      <c r="G226" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7120,11 +6625,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>12</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7144,13 +6647,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>21</v>
-      </c>
-      <c r="G228" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7172,11 +6673,9 @@
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229" t="s">
-        <v>12</v>
-      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7196,13 +6695,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>21</v>
-      </c>
-      <c r="G230" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7224,11 +6721,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7248,13 +6743,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>21</v>
-      </c>
-      <c r="G232" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7276,11 +6769,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7300,13 +6791,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>21</v>
-      </c>
-      <c r="G234" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7328,11 +6817,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7352,13 +6839,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>21</v>
-      </c>
-      <c r="G236" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7380,11 +6865,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7404,13 +6887,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>21</v>
-      </c>
-      <c r="G238" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7432,11 +6913,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7456,13 +6935,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>21</v>
-      </c>
-      <c r="G240" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7484,11 +6961,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7508,13 +6983,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>21</v>
-      </c>
-      <c r="G242" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7536,11 +7009,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7560,13 +7031,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>21</v>
-      </c>
-      <c r="G244" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7588,11 +7057,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7612,13 +7079,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>14</v>
-      </c>
-      <c r="G246" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7638,13 +7103,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>21</v>
-      </c>
-      <c r="G247" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7664,13 +7127,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>14</v>
-      </c>
-      <c r="G248" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7692,11 +7153,9 @@
       <c r="F249" t="s">
         <v>11</v>
       </c>
-      <c r="G249" t="s">
-        <v>12</v>
-      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7716,13 +7175,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>14</v>
-      </c>
-      <c r="G250" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7744,11 +7201,9 @@
       <c r="F251" t="s">
         <v>11</v>
       </c>
-      <c r="G251" t="s">
-        <v>12</v>
-      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
